--- a/RobProg/measurements.xlsx
+++ b/RobProg/measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_projects\software-engineering-f22\RobProg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B0403C-9D22-418A-8DEE-90C245A354E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E64800-52F3-49D4-A86A-6015F91F50DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Tested med Nikolais MacBook</t>
   </si>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>0.5cm*pi*140=220cm</t>
+  </si>
+  <si>
+    <t>2.5V, 2A</t>
+  </si>
+  <si>
+    <t>5V, 5A</t>
+  </si>
+  <si>
+    <t>Magnetic field</t>
+  </si>
+  <si>
+    <t>Distance (mm)</t>
   </si>
 </sst>
 </file>
@@ -299,14 +311,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="exp"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.1626286089238845"/>
-                  <c:y val="-0.19459755030621173"/>
+                  <c:x val="0.17640791776027998"/>
+                  <c:y val="-0.22690616797900262"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -720,7 +732,1179 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Lifting</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Capability of Magnet</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15542519685039369"/>
+                  <c:y val="-0.17225503062117237"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$C$37:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$D$37:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>104.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120.7</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>136.30000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-60DE-42F5-8533-5B6FF808ACC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="473080559"/>
+        <c:axId val="473080975"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="473080559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Current</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> [A]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473080975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="473080975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Weight</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> [g]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473080559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Magnetic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Field Distance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13278521434820648"/>
+                  <c:y val="-0.201418416447944"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$C$55:$C$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$D$55:$D$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-48E5-4E42-8C0D-4FF1749FF52F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="850005583"/>
+        <c:axId val="850009327"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="850005583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Current</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> [A]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="850009327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="850009327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Distance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> [mm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="850005583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1276,6 +2460,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1309,6 +3525,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE005A59-7A69-403A-BC57-AD9272A503FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99197DF4-360D-4060-AB8F-BA2F2A7427E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1580,10 +3868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,6 +3988,9 @@
       <c r="B22" t="s">
         <v>26</v>
       </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
@@ -1791,6 +4082,188 @@
       </c>
       <c r="D32">
         <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>0.6</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>1.2</v>
+      </c>
+      <c r="D41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>1.4</v>
+      </c>
+      <c r="D42">
+        <v>26</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>1.6</v>
+      </c>
+      <c r="D43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="D44">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D46">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>2.85</v>
+      </c>
+      <c r="D47">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="D48">
+        <v>104.9</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>3.75</v>
+      </c>
+      <c r="D49">
+        <v>120.7</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2">
+        <v>136.30000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>

--- a/RobProg/measurements.xlsx
+++ b/RobProg/measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_projects\software-engineering-f22\RobProg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E64800-52F3-49D4-A86A-6015F91F50DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3845522D-CD32-4338-95B8-981C5914A378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Capability of Magnet</a:t>
+              <a:t> Capability of the Electromagnet</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -317,8 +317,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.17640791776027998"/>
-                  <c:y val="-0.22690616797900262"/>
+                  <c:x val="0.21807458442694663"/>
+                  <c:y val="-0.17135061242344707"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -771,7 +771,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Capability of Magnet</a:t>
+              <a:t> Capability of the Electromagnet</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -855,8 +855,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.15542519685039369"/>
-                  <c:y val="-0.17225503062117237"/>
+                  <c:x val="0.20264741907261594"/>
+                  <c:y val="-0.10554899387576552"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1135,6 +1135,7 @@
         <c:axId val="473080975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3870,8 +3871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
